--- a/UseTax_Performer/Data/Config.xlsx
+++ b/UseTax_Performer/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSai\Tax-Use-Automation\UseTax_Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uipath_svc\.nuget\packages\usetax_performer\1.0.16\content\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A136CFFB-B8B0-4484-8631-D5C12019992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C008B82-135D-40C7-8C94-7AF30DF6611C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -289,82 +289,106 @@
     <t>HylandUnity_Credentials</t>
   </si>
   <si>
+    <t>RetryNumberGetTransactionItem</t>
+  </si>
+  <si>
+    <t>LogMessage_GetTransactionData</t>
+  </si>
+  <si>
+    <t>Getting transaction item from the queue</t>
+  </si>
+  <si>
+    <t>RetryNumberSetTransactionStatus</t>
+  </si>
+  <si>
+    <t>OutputSheet</t>
+  </si>
+  <si>
+    <t>SE16N</t>
+  </si>
+  <si>
+    <t>SE16Path</t>
+  </si>
+  <si>
+    <t>SuccessEmail_UseTax</t>
+  </si>
+  <si>
+    <t>CC_Email_UseTax</t>
+  </si>
+  <si>
+    <t>ExceptionEmail_UseTax</t>
+  </si>
+  <si>
+    <t>EmailException_Subject</t>
+  </si>
+  <si>
+    <t>EmailException_Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The process has encountered a Technical Exception. </t>
+  </si>
+  <si>
+    <t>EmailSuccess_Subject</t>
+  </si>
+  <si>
+    <t>EmailSuccess_Body</t>
+  </si>
+  <si>
+    <t>Technical Exception - UseTax_Perfromer</t>
+  </si>
+  <si>
+    <t>Month End Invoice Tax Report</t>
+  </si>
+  <si>
+    <t>Find attached Invoices for review</t>
+  </si>
+  <si>
+    <t>C:\Users\uipath_svc\AppData\Local\Apps\2.0\MQX8TC26.DBN\20V6KYJO.YGA\unit..tion_c985434882f2074b_0001.0000_47126dcb5ebb2231\obunity.exe</t>
+  </si>
+  <si>
+    <t>C:\Users\saiprasad\AppData\Local\Apps\2.0\117CH9NB.WGJ\M689NGLJ.JR1\unit..tion_c985434882f2074b_0001.0000_47126dcb5ebb2231\obunity.exe</t>
+  </si>
+  <si>
+    <t>TEXT((TODAY()),"mmmm")</t>
+  </si>
+  <si>
+    <t>Invoice FolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\uipath_svc\AppData\Local\Apps\2.0\M65YX774.JX7\YH7QEVYJ.37L\unit..tion_c985434882f2074b_0001.0000_47126dcb5ebb2231\obunity.exe</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>UseTax_HylandUnity_Location</t>
+  </si>
+  <si>
+    <t>Prod</t>
+  </si>
+  <si>
     <t>UseTax</t>
   </si>
   <si>
-    <t>RetryNumberGetTransactionItem</t>
-  </si>
-  <si>
-    <t>LogMessage_GetTransactionData</t>
-  </si>
-  <si>
-    <t>Getting transaction item from the queue</t>
-  </si>
-  <si>
-    <t>RetryNumberSetTransactionStatus</t>
-  </si>
-  <si>
-    <t>OutputSheet</t>
-  </si>
-  <si>
-    <t>SE16N</t>
-  </si>
-  <si>
-    <t>SE16Path</t>
-  </si>
-  <si>
-    <t>SuccessEmail_UseTax</t>
-  </si>
-  <si>
-    <t>CC_Email_UseTax</t>
-  </si>
-  <si>
-    <t>ExceptionEmail_UseTax</t>
-  </si>
-  <si>
-    <t>EmailException_Subject</t>
-  </si>
-  <si>
-    <t>EmailException_Body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The process has encountered a Technical Exception. </t>
-  </si>
-  <si>
-    <t>EmailSuccess_Subject</t>
-  </si>
-  <si>
-    <t>EmailSuccess_Body</t>
-  </si>
-  <si>
-    <t>Technical Exception - UseTax_Perfromer</t>
-  </si>
-  <si>
-    <t>Month End Invoice Tax Report</t>
-  </si>
-  <si>
-    <t>Find attached Invoices for review</t>
-  </si>
-  <si>
-    <t>C:\Users\uipath_svc\AppData\Local\Apps\2.0\MQX8TC26.DBN\20V6KYJO.YGA\unit..tion_c985434882f2074b_0001.0000_47126dcb5ebb2231\obunity.exe</t>
-  </si>
-  <si>
-    <t>C:\Users\saiprasad\AppData\Local\Apps\2.0\117CH9NB.WGJ\M689NGLJ.JR1\unit..tion_c985434882f2074b_0001.0000_47126dcb5ebb2231\obunity.exe</t>
-  </si>
-  <si>
-    <t>TEXT((TODAY()),"mmmm")</t>
-  </si>
-  <si>
-    <t>Invoice FolderPath</t>
-  </si>
-  <si>
-    <t>C:\Users\uipath_svc\AppData\Local\Apps\2.0\M65YX774.JX7\YH7QEVYJ.37L\unit..tion_c985434882f2074b_0001.0000_47126dcb5ebb2231\obunity.exe</t>
-  </si>
-  <si>
-    <t>UAT</t>
-  </si>
-  <si>
-    <t>UseTax_HylandUnity_Location</t>
+    <t>\\twcfileshp01\usershares$\Accounting\Sales Tax\Use Tax\AZ-FL-PA-TX Invoices to verify (Monthly)\2025\December</t>
+  </si>
+  <si>
+    <t>\\twcfileshp01\usershares$\Accounting\Sales Tax\Use Tax\2025\000FY25 AZ FL PA TX Use Tax Reports\</t>
+  </si>
+  <si>
+    <t>C:\Users\uipath_svc\Documents\Uipath Processes\UseTax\Jan\</t>
+  </si>
+  <si>
+    <t>\\twcfileshp01\usershares$\Accounting\Sales Tax\Use Tax\AZ-FL-PA-TX Invoices to verify (Monthly)\2025\January\Docs to lookup.xlsx</t>
+  </si>
+  <si>
+    <t>\\twcfileshp01\usershares$\Accounting\Sales Tax\Use Tax\AZ-FL-PA-TX Invoices to verify (Monthly)\2025\April\Docs to lookup.xlsx</t>
+  </si>
+  <si>
+    <t>\\twcfileshp01\usershares$\Accounting\Sales Tax\Use Tax\AZ-FL-PA-TX Invoices to verify (Monthly)\2025\April</t>
+  </si>
+  <si>
+    <t>C:\Users\uipath_svc\Documents\Uipath Processes\UseTax\May\</t>
   </si>
 </sst>
 </file>
@@ -799,16 +823,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -850,25 +874,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="29">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1885,16 +1909,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="86.26953125" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="86.28515625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1931,7 +1955,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1942,7 +1966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2026,7 +2050,7 @@
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="29">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2125,13 +2149,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="38.5" customHeight="1">
+    <row r="29" spans="1:3" ht="38.450000000000003" customHeight="1">
       <c r="A29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="3" t="str">
-        <f ca="1">_xlfn.CONCAT("\\twcfileshp01\usershares$\Accounting\Sales Tax\Use Tax\AZ-FL-PA-TX Invoices to verify (Monthly)","\",TEXT(TODAY(),"yyyy"),"\",TEXT(EOMONTH(TODAY(),-1),"mmmm"),"\Docs to lookup.xlsx")</f>
-        <v>\\twcfileshp01\usershares$\Accounting\Sales Tax\Use Tax\AZ-FL-PA-TX Invoices to verify (Monthly)\2024\September\Docs to lookup.xlsx</v>
+        <v>89</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
@@ -2190,37 +2216,37 @@
         <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
         <v>106</v>
-      </c>
-      <c r="D37" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1">
       <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
         <v>85</v>
       </c>
-      <c r="B38" t="s">
-        <v>86</v>
-      </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -2228,73 +2254,78 @@
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1">
       <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
         <v>88</v>
       </c>
-      <c r="B40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30.65" customHeight="1">
+    </row>
+    <row r="41" spans="1:4" ht="30.6" customHeight="1">
       <c r="A41" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="3" t="str">
-        <f ca="1">_xlfn.CONCAT("\\twcfileshp01\usershares$\Accounting\Sales Tax\Use Tax\AZ-FL-PA-TX Invoices to verify (Monthly)","\",TEXT(TODAY(),"yyyy"),"\",TEXT(EOMONTH(TODAY(),-1),"mmmm"))</f>
-        <v>\\twcfileshp01\usershares$\Accounting\Sales Tax\Use Tax\AZ-FL-PA-TX Invoices to verify (Monthly)\2024\September</v>
-      </c>
-      <c r="C41" s="12"/>
+        <v>104</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1">
       <c r="A42" t="s">
         <v>66</v>
       </c>
-      <c r="B42" t="str">
-        <f ca="1">_xlfn.CONCAT("C:\Users\uipath_svc\Documents\Uipath Processes\UseTax\",TEXT(TODAY(),"mmm"),"\")</f>
-        <v>C:\Users\uipath_svc\Documents\Uipath Processes\UseTax\Oct\</v>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1">
       <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
         <v>95</v>
       </c>
-      <c r="B44" t="s">
-        <v>96</v>
-      </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.25" customHeight="1">
       <c r="A47" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B47" t="str">
-        <f ca="1">_xlfn.CONCAT("\\twcfileshp01\usershares$\Accounting\Sales Tax\Use Tax\",TEXT(TODAY(),"yyyy"),"\000FY",TEXT(TODAY(),"yy")," AZ FL PA TX Use Tax Reports\")</f>
-        <v>\\twcfileshp01\usershares$\Accounting\Sales Tax\Use Tax\2024\000FY24 AZ FL PA TX Use Tax Reports\</v>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.25" customHeight="1"/>
@@ -3233,6 +3264,10 @@
     <row r="981" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B41" r:id="rId1" xr:uid="{2AA689E0-5A10-4E11-B2DE-C5CF41A256B8}"/>
+    <hyperlink ref="B29" r:id="rId2" xr:uid="{D6A02ED8-E720-4E48-84CA-BCDFDF2B2A4A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3242,15 +3277,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="3" max="3" width="60.26953125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3302,7 +3337,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -3318,7 +3353,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -3334,7 +3369,7 @@
         <v>55</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -3366,7 +3401,7 @@
         <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
